--- a/Vand eller ej.xlsx
+++ b/Vand eller ej.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theis\OneDrive - University of Copenhagen\Sommerkurser\Introduction to social data science\Intro-to-social-data-science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7670DC79-0BDF-425E-A12A-7995145F38E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67529DD-471A-4140-B32D-31711280DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="345" windowWidth="23565" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="15264" windowWidth="19440" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPK13" sheetId="2" r:id="rId1"/>
@@ -4523,28 +4523,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ME30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I23" sqref="G23:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="343" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="343" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:343" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:343" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:343" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>344</v>
       </c>
@@ -6603,10 +6603,10 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="6" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
     </row>
-    <row r="8" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:343" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>354</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>345</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>346</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>347</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>348</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>349</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>350</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:343" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>351</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>352</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>353</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>365</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>34598</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>35865</v>
       </c>
@@ -6862,8 +6862,11 @@
       <c r="K23" t="s">
         <v>375</v>
       </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>37215</v>
       </c>
@@ -6897,8 +6900,11 @@
       <c r="K24" t="s">
         <v>375</v>
       </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>38391</v>
       </c>
@@ -6932,8 +6938,11 @@
       <c r="K25" t="s">
         <v>375</v>
       </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>39399</v>
       </c>
@@ -6967,8 +6976,11 @@
       <c r="K26" t="s">
         <v>375</v>
       </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>40801</v>
       </c>
@@ -7002,8 +7014,11 @@
       <c r="K27" t="s">
         <v>375</v>
       </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>42173</v>
       </c>
@@ -7037,8 +7052,11 @@
       <c r="K28" t="s">
         <v>376</v>
       </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>43621</v>
       </c>
@@ -7072,8 +7090,11 @@
       <c r="K29" t="s">
         <v>375</v>
       </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44866</v>
       </c>
@@ -7106,6 +7127,9 @@
       </c>
       <c r="K30" t="s">
         <v>376</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
